--- a/Testcase_template.xlsx
+++ b/Testcase_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Documents\GitHub\MyFirstRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="45">
   <si>
     <t>MANUAL TESTING TEST CASE TEMPLATE</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>Проверка форм</t>
+  </si>
+  <si>
+    <t>Обновить страницу</t>
   </si>
 </sst>
 </file>
@@ -805,6 +808,12 @@
     <xf numFmtId="14" fontId="2" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -820,12 +829,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1136,11 +1139,11 @@
       <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
       <c r="F3" s="13" t="s">
         <v>13</v>
       </c>
@@ -1200,11 +1203,11 @@
     <row r="5" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
       <c r="F5" s="48">
         <v>44263</v>
       </c>
@@ -1292,12 +1295,12 @@
     <row r="8" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="28"/>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="51"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -29194,11 +29197,11 @@
       <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
       <c r="F3" s="13" t="s">
         <v>13</v>
       </c>
@@ -29218,11 +29221,11 @@
     <row r="5" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
       <c r="F5" s="48">
         <v>44263</v>
       </c>
@@ -29250,12 +29253,12 @@
     <row r="8" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="28"/>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="51"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="53"/>
     </row>
     <row r="9" spans="1:6" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
@@ -29302,7 +29305,7 @@
       <c r="B12" s="40">
         <v>2</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="49" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="42"/>
@@ -29432,11 +29435,11 @@
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="13" t="s">
         <v>13</v>
       </c>
@@ -29454,11 +29457,11 @@
     </row>
     <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
       <c r="E5" s="48">
         <v>44263</v>
       </c>
@@ -29483,12 +29486,12 @@
     </row>
     <row r="8" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="51"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="53"/>
     </row>
     <row r="9" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A9" s="29"/>
@@ -29531,11 +29534,11 @@
       <c r="A12" s="40">
         <v>2</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="49" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="42"/>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="50" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="43"/>
@@ -29648,11 +29651,11 @@
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="13" t="s">
         <v>13</v>
       </c>
@@ -29670,11 +29673,11 @@
     </row>
     <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
       <c r="E5" s="48">
         <v>44263</v>
       </c>
@@ -29702,9 +29705,9 @@
       <c r="B8" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="51"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="53"/>
     </row>
     <row r="9" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A9" s="29"/>
@@ -29747,11 +29750,11 @@
       <c r="A12" s="40">
         <v>2</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="49" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="42"/>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="50" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="43"/>
@@ -29760,11 +29763,11 @@
       <c r="A13" s="40">
         <v>3</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="49" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="42"/>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="50" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="43"/>
@@ -29867,11 +29870,11 @@
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="13" t="s">
         <v>13</v>
       </c>
@@ -29889,11 +29892,11 @@
     </row>
     <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
       <c r="E5" s="48">
         <v>44263</v>
       </c>
@@ -29921,9 +29924,9 @@
       <c r="B8" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="51"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="53"/>
     </row>
     <row r="9" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A9" s="29"/>
@@ -29966,11 +29969,11 @@
       <c r="A12" s="40">
         <v>2</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="49" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="42"/>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="50" t="s">
         <v>34</v>
       </c>
       <c r="E12" s="43"/>
@@ -29979,9 +29982,9 @@
       <c r="A13" s="40">
         <v>3</v>
       </c>
-      <c r="B13" s="58"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="42"/>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="50" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="43"/>
@@ -30039,11 +30042,11 @@
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="13" t="s">
         <v>13</v>
       </c>
@@ -30061,11 +30064,11 @@
     </row>
     <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
       <c r="E5" s="48">
         <v>44263</v>
       </c>
@@ -30093,9 +30096,9 @@
       <c r="B8" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="51"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="53"/>
     </row>
     <row r="9" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A9" s="29"/>
@@ -30138,11 +30141,11 @@
       <c r="A12" s="40">
         <v>2</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="49" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="42"/>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="50" t="s">
         <v>36</v>
       </c>
       <c r="E12" s="43"/>
@@ -30200,11 +30203,11 @@
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="13" t="s">
         <v>13</v>
       </c>
@@ -30222,11 +30225,11 @@
     </row>
     <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
       <c r="E5" s="48">
         <v>44263</v>
       </c>
@@ -30254,9 +30257,9 @@
       <c r="B8" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="51"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="53"/>
     </row>
     <row r="9" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A9" s="29"/>
@@ -30299,11 +30302,11 @@
       <c r="A12" s="40">
         <v>2</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="49" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="42"/>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="50" t="s">
         <v>38</v>
       </c>
       <c r="E12" s="43"/>
@@ -30312,17 +30315,17 @@
       <c r="A13" s="40">
         <v>3</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="49" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="42"/>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="50" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="40"/>
-      <c r="B14" s="58"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="42"/>
     </row>
   </sheetData>
@@ -30341,7 +30344,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D8" sqref="D8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30378,11 +30381,11 @@
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="13" t="s">
         <v>13</v>
       </c>
@@ -30403,8 +30406,8 @@
       <c r="B5" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
       <c r="E5" s="48">
         <v>44263</v>
       </c>
@@ -30432,9 +30435,11 @@
       <c r="B8" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="51"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="53"/>
     </row>
     <row r="9" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A9" s="29"/>
@@ -30477,11 +30482,11 @@
       <c r="A12" s="40">
         <v>2</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="49" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="42"/>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="50" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="43"/>
@@ -30490,9 +30495,9 @@
       <c r="A13" s="40">
         <v>3</v>
       </c>
-      <c r="B13" s="58"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="42"/>
-      <c r="D13" s="59"/>
+      <c r="D13" s="50"/>
       <c r="E13" s="5"/>
     </row>
   </sheetData>
